--- a/data/trans_bre/P2A_fisi_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 4,04</t>
+          <t>-1,28; 3,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,89</t>
+          <t>-2,73; 3,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,48</t>
+          <t>1,41; 7,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,12</t>
+          <t>-3,37; 5,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 57,29</t>
+          <t>-12,97; 47,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 26,87</t>
+          <t>-18,36; 28,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,21; 107,73</t>
+          <t>13,07; 108,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 25,75</t>
+          <t>-13,25; 25,39</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,56</t>
+          <t>-1,31; 1,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,54</t>
+          <t>0,17; 3,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,13</t>
+          <t>-1,72; 0,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 18,26</t>
+          <t>-1,82; 20,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 48,36</t>
+          <t>-28,69; 49,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 77,79</t>
+          <t>2,55; 74,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,76; 25,19</t>
+          <t>-30,49; 23,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 188,03</t>
+          <t>-17,85; 209,77</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,29</t>
+          <t>-0,88; 4,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 4,02</t>
+          <t>-1,83; 4,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,07</t>
+          <t>-2,06; 2,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 0,83</t>
+          <t>-4,44; 0,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 267,15</t>
+          <t>-28,81; 258,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 162,29</t>
+          <t>-34,6; 169,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 134,75</t>
+          <t>-42,99; 107,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 16,72</t>
+          <t>-51,33; 16,34</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,35</t>
+          <t>-0,01; 2,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,11</t>
+          <t>0,43; 3,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,71</t>
+          <t>0,28; 2,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 10,55</t>
+          <t>-0,6; 14,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 52,82</t>
+          <t>-0,71; 53,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 46,84</t>
+          <t>5,47; 48,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 53,54</t>
+          <t>4,78; 54,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 101,42</t>
+          <t>-5,0; 129,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_fisi_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 5,05</t>
+          <t>-3,56; 4,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 25,39</t>
+          <t>-13,87; 24,68</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>89,88%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 20,47</t>
+          <t>-1,11; 34,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 209,77</t>
+          <t>-12,73; 411,26</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -835,12 +835,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>59,97%</t>
+          <t>73,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-24,4%</t>
+          <t>-26,21%</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 4,54</t>
+          <t>-0,58; 4,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -883,12 +883,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 0,92</t>
+          <t>-4,86; 0,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 258,48</t>
+          <t>-21,81; 281,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 16,34</t>
+          <t>-53,16; 14,27</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>52,29%</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,35</t>
+          <t>0,04; 2,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -983,12 +983,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 14,9</t>
+          <t>-0,26; 25,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 53,15</t>
+          <t>0,69; 54,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 129,1</t>
+          <t>-2,28; 266,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_fisi_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_fisi_R-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,47</t>
+          <t>-0,88; 3,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 3,31</t>
+          <t>-2,93; 2,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 7,54</t>
+          <t>1,53; 7,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 4,85</t>
+          <t>-3,56; 4,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 47,51</t>
+          <t>-8,99; 53,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 28,95</t>
+          <t>-19,74; 26,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 108,61</t>
+          <t>14,89; 110,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 24,68</t>
+          <t>-13,7; 23,58</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,53</t>
+          <t>-1,18; 1,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,47</t>
+          <t>0,27; 3,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,96</t>
+          <t>-1,75; 1,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 34,6</t>
+          <t>-1,23; 31,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 49,05</t>
+          <t>-27,63; 50,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 74,83</t>
+          <t>3,92; 79,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 23,13</t>
+          <t>-30,76; 26,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 411,26</t>
+          <t>-13,52; 427,74</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,94</t>
+          <t>-0,36; 4,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 4,24</t>
+          <t>-1,65; 4,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,56</t>
+          <t>-1,99; 2,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 0,75</t>
+          <t>-4,68; 0,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 281,02</t>
+          <t>-16,39; 249,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 169,51</t>
+          <t>-36,05; 183,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,99; 107,01</t>
+          <t>-42,2; 118,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,16; 14,27</t>
+          <t>-50,91; 16,47</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,4</t>
+          <t>0,04; 2,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,18</t>
+          <t>0,28; 3,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,68</t>
+          <t>0,06; 2,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 25,85</t>
+          <t>-0,24; 21,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 54,46</t>
+          <t>0,62; 53,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 48,25</t>
+          <t>3,4; 46,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 54,57</t>
+          <t>0,71; 49,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 266,1</t>
+          <t>-2,21; 231,38</t>
         </is>
       </c>
     </row>
